--- a/Instrumentacion/Practica4/PR4_Cuestionario_23_24.xlsx
+++ b/Instrumentacion/Practica4/PR4_Cuestionario_23_24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\US\Instrumentacion\Practica4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E7F58F3-5BFE-4E7D-83B4-28239BC06AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A781C8-1E49-465C-A27C-AC506A450CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Divisor resistivo" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>Característica del divisor resistivo</t>
   </si>
@@ -94,12 +94,15 @@
   <si>
     <t>Característica de salida teórica del circuito</t>
   </si>
+  <si>
+    <t>PUESTO 6</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -113,6 +116,11 @@
     <font>
       <u/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="22"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -137,12 +145,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -158,6 +172,3920 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Divisor</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> Resistivo</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Medido</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Divisor resistivo'!$B$10:$V$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.54002916157472514</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>215.54806415364183</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>448.5565319151159</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>651.15857977451503</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>944.91860264035222</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1158.8835313849179</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1438.5065885797951</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1764.8442922857917</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2011.2906131763857</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2375.0123750123748</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2661.2729643838388</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2974.543944780341</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3306.8969646968026</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3709.8985467507541</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3941.1682699010175</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4226.774790155072</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4524.9611457289357</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4631.8623434390729</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4849.3533106633204</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5076.5890724882402</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5127.9064490265191</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Divisor resistivo'!$B$8:$V$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5206-46C8-9AAA-7C0079AD5174}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Teorico</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Divisor resistivo'!$B$3:$V$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3250</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4250</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4750</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Divisor resistivo'!$B$4:$V$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5206-46C8-9AAA-7C0079AD5174}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1740222032"/>
+        <c:axId val="1740206192"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1740222032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5500"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Rs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1740206192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1740206192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Vo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1740222032"/>
+        <c:crossesAt val="-500"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.86596741032370961"/>
+          <c:y val="0.47763815981335667"/>
+          <c:w val="0.13403258967629048"/>
+          <c:h val="0.15625109361329836"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Puente de Wheatstone</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Medido</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Puente de Wheatstone'!$B$13:$P$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>19903.45489443378</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19597.680633769211</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18036.611616255334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16555.595667870035</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15243.74229889104</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14008.392749763765</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13025.360060641793</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12060.033030553263</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11037.832922442711</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10144.347515761925</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9417.0513891382579</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8664.4899996161075</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8029.0541358847031</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7379.378267711837</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6679.5978276823716</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Puente de Wheatstone'!$B$11:$P$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-0.61799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8B1E-4212-A73F-7FA53427AB1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Teorico</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Puente de Wheatstone'!$B$3:$P$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>21511.111111111109</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19742.105263157897</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16709.523809523809</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15399.999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14204.347826086958</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13108.333333333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11169.23076923077</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10307.407407407407</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9507.1428571428569</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8762.0689655172409</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8066.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7416.1290322580644</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6806.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Puente de Wheatstone'!$B$4:$P$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8B1E-4212-A73F-7FA53427AB1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1958299488"/>
+        <c:axId val="1958298528"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1958299488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="5000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Rs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1958298528"/>
+        <c:crossesAt val="-8"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1958298528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Vo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1958299488"/>
+        <c:crossesAt val="-0.8"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Puente con amplificadores</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Medido</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Puente con amplificadores'!$B$18:$L$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>8808.2184394978049</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10917.608643070225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11135.60667422647</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11472.248959947794</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11774.207847644066</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11880.995475113123</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12260.530679933665</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12699.330655957163</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12975.557425326042</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13246.531302876481</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14125.34871706561</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Puente con amplificadores'!$B$16:$L$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-9.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9.9480000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9.4499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.43</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B5DB-496E-92B9-B59DEB3D706D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Teorico</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Puente con amplificadores'!$B$3:$L$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>11205.272222222222</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11200.934148148148</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11245.941666666668</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11609.255370370371</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11883.096296296297</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12384.686111111112</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12823.012345679012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13103.179629629631</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13123.966234567901</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13123.966234567901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Puente con amplificadores'!$B$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-9.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9.9480000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9.4499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.43</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.33</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B5DB-496E-92B9-B59DEB3D706D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1887613936"/>
+        <c:axId val="1887610576"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1887613936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="8800"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Rs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1887610576"/>
+        <c:crossesAt val="-13"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1887610576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="12"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Vo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1887613936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>327742</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>148302</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>49162</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>105696</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CEAF626-E496-9E2A-5141-DC67E2A6C74F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21D4C054-237F-075B-2739-76BA5F362EA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACD9E977-5F32-A370-D1F9-37686C6B4DAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -447,10 +4375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V15"/>
+  <dimension ref="A1:V24"/>
   <sheetViews>
-    <sheetView zoomScale="93" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="D7" zoomScale="93" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -700,115 +4628,157 @@
       <c r="A9" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
+      <c r="B9" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="C9" s="3">
+        <v>211</v>
+      </c>
+      <c r="D9" s="3">
+        <v>429.3</v>
+      </c>
+      <c r="E9" s="3">
+        <v>611.35</v>
+      </c>
+      <c r="F9" s="3">
+        <v>863.34</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1038.53</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1257.5999999999999</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1500.1</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1674.5</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1919.2</v>
+      </c>
+      <c r="L9" s="3">
+        <v>2101.9</v>
+      </c>
+      <c r="M9" s="3">
+        <v>2292.6</v>
+      </c>
+      <c r="N9" s="3">
+        <v>2485.1</v>
+      </c>
+      <c r="O9" s="3">
+        <v>2706</v>
+      </c>
+      <c r="P9" s="3">
+        <v>2827</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>2971</v>
+      </c>
+      <c r="R9" s="3">
+        <v>3115.3</v>
+      </c>
+      <c r="S9" s="3">
+        <v>3165.6</v>
+      </c>
+      <c r="T9" s="3">
+        <v>3265.7</v>
+      </c>
+      <c r="U9" s="3">
+        <v>3367.2</v>
+      </c>
+      <c r="V9" s="3">
+        <v>3389.7</v>
+      </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="3" t="str">
+      <c r="B10" s="3">
         <f>IF(B9="","",($B$12*B9)/($B$12-B9))</f>
-        <v/>
-      </c>
-      <c r="C10" s="3" t="str">
+        <v>0.54002916157472514</v>
+      </c>
+      <c r="C10" s="3">
         <f t="shared" ref="C10:V10" si="1">IF(C9="","",($B$12*C9)/($B$12-C9))</f>
-        <v/>
-      </c>
-      <c r="D10" s="3" t="str">
+        <v>215.54806415364183</v>
+      </c>
+      <c r="D10" s="3">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E10" s="3" t="str">
+        <v>448.5565319151159</v>
+      </c>
+      <c r="E10" s="3">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F10" s="3" t="str">
+        <v>651.15857977451503</v>
+      </c>
+      <c r="F10" s="3">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G10" s="3" t="str">
+        <v>944.91860264035222</v>
+      </c>
+      <c r="G10" s="3">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H10" s="3" t="str">
+        <v>1158.8835313849179</v>
+      </c>
+      <c r="H10" s="3">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I10" s="3" t="str">
+        <v>1438.5065885797951</v>
+      </c>
+      <c r="I10" s="3">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J10" s="3" t="str">
+        <v>1764.8442922857917</v>
+      </c>
+      <c r="J10" s="3">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K10" s="3" t="str">
+        <v>2011.2906131763857</v>
+      </c>
+      <c r="K10" s="3">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L10" s="3" t="str">
+        <v>2375.0123750123748</v>
+      </c>
+      <c r="L10" s="3">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M10" s="3" t="str">
+        <v>2661.2729643838388</v>
+      </c>
+      <c r="M10" s="3">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N10" s="3" t="str">
+        <v>2974.543944780341</v>
+      </c>
+      <c r="N10" s="3">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O10" s="3" t="str">
+        <v>3306.8969646968026</v>
+      </c>
+      <c r="O10" s="3">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P10" s="3" t="str">
+        <v>3709.8985467507541</v>
+      </c>
+      <c r="P10" s="3">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q10" s="3" t="str">
+        <v>3941.1682699010175</v>
+      </c>
+      <c r="Q10" s="3">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R10" s="3" t="str">
+        <v>4226.774790155072</v>
+      </c>
+      <c r="R10" s="3">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S10" s="3" t="str">
+        <v>4524.9611457289357</v>
+      </c>
+      <c r="S10" s="3">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="T10" s="3" t="str">
+        <v>4631.8623434390729</v>
+      </c>
+      <c r="T10" s="3">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="U10" s="3" t="str">
+        <v>4849.3533106633204</v>
+      </c>
+      <c r="U10" s="3">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V10" s="3" t="str">
+        <v>5076.5890724882402</v>
+      </c>
+      <c r="V10" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>5127.9064490265191</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -824,11 +4794,59 @@
         <v>17</v>
       </c>
     </row>
+    <row r="18" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+    </row>
+    <row r="19" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+    </row>
+    <row r="20" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+    </row>
+    <row r="21" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+    </row>
+    <row r="22" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+    </row>
+    <row r="23" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+    </row>
+    <row r="24" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="P18:S24"/>
+  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -836,8 +4854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -991,7 +5009,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-0.7</v>
+        <v>-0.61799999999999999</v>
       </c>
       <c r="C11">
         <v>-0.6</v>
@@ -1040,70 +5058,115 @@
       <c r="A12" t="s">
         <v>2</v>
       </c>
+      <c r="B12">
+        <v>13780</v>
+      </c>
+      <c r="C12">
+        <v>13723</v>
+      </c>
+      <c r="D12">
+        <v>13422</v>
+      </c>
+      <c r="E12">
+        <v>13120</v>
+      </c>
+      <c r="F12">
+        <v>12838</v>
+      </c>
+      <c r="G12">
+        <v>12559</v>
+      </c>
+      <c r="H12">
+        <v>12327</v>
+      </c>
+      <c r="I12">
+        <v>12090</v>
+      </c>
+      <c r="J12">
+        <v>11828.5</v>
+      </c>
+      <c r="K12">
+        <v>11590.5</v>
+      </c>
+      <c r="L12">
+        <v>11389.9</v>
+      </c>
+      <c r="M12">
+        <v>11175.5</v>
+      </c>
+      <c r="N12">
+        <v>10988.8</v>
+      </c>
+      <c r="O12">
+        <v>10792.3</v>
+      </c>
+      <c r="P12">
+        <v>10574</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="str">
-        <f>IF(B12="","",(2*$B$8*$B$8-3*$B$8*B12)/(B12-2*$B$8))</f>
-        <v/>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" ref="C13:P13" si="1">IF(C12="","",(2*$B$8*$B$8-3*$B$8*C12)/(C12-2*$B$8))</f>
-        <v/>
-      </c>
-      <c r="D13" t="str">
+      <c r="B13">
+        <f t="shared" ref="B13:P13" si="1">IF(B12="","",(2*$B$8*$B$8-3*$B$8*B12)/(B12-2*$B$8))</f>
+        <v>19903.45489443378</v>
+      </c>
+      <c r="C13">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E13" t="str">
+        <v>19597.680633769211</v>
+      </c>
+      <c r="D13">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F13" t="str">
+        <v>18036.611616255334</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G13" t="str">
+        <v>16555.595667870035</v>
+      </c>
+      <c r="F13">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H13" t="str">
+        <v>15243.74229889104</v>
+      </c>
+      <c r="G13">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I13" t="str">
+        <v>14008.392749763765</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J13" t="str">
+        <v>13025.360060641793</v>
+      </c>
+      <c r="I13">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K13" t="str">
+        <v>12060.033030553263</v>
+      </c>
+      <c r="J13">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L13" t="str">
+        <v>11037.832922442711</v>
+      </c>
+      <c r="K13">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M13" t="str">
+        <v>10144.347515761925</v>
+      </c>
+      <c r="L13">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N13" t="str">
+        <v>9417.0513891382579</v>
+      </c>
+      <c r="M13">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O13" t="str">
+        <v>8664.4899996161075</v>
+      </c>
+      <c r="N13">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P13" t="str">
+        <v>8029.0541358847031</v>
+      </c>
+      <c r="O13">
         <f t="shared" si="1"/>
-        <v/>
+        <v>7379.378267711837</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="1"/>
+        <v>6679.5978276823716</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1114,7 +5177,9 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1122,8 +5187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1145,24 +5210,24 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <f>12100*(1+(B4*12100)/(5*324000))</f>
-        <v>11693.305555555555</v>
+        <f t="shared" ref="B3:L3" si="0">12100*(1+(B4*12100)/(5*324000))</f>
+        <v>11205.272222222222</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:L3" si="0">12100*(1+(C4*12100)/(5*324000))</f>
-        <v>11738.493827160493</v>
+        <f t="shared" si="0"/>
+        <v>11200.934148148148</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>11828.87037037037</v>
+        <v>11245.941666666668</v>
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
-        <v>11919.246913580246</v>
+        <v>11609.255370370371</v>
       </c>
       <c r="F3">
         <f t="shared" si="0"/>
-        <v>12009.623456790125</v>
+        <v>11883.096296296297</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
@@ -1170,23 +5235,23 @@
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>12190.376543209877</v>
+        <v>12384.686111111112</v>
       </c>
       <c r="I3">
         <f t="shared" si="0"/>
-        <v>12280.753086419752</v>
+        <v>12823.012345679012</v>
       </c>
       <c r="J3">
         <f t="shared" si="0"/>
-        <v>12371.12962962963</v>
+        <v>13103.179629629631</v>
       </c>
       <c r="K3">
         <f t="shared" si="0"/>
-        <v>12461.506172839507</v>
+        <v>13123.966234567901</v>
       </c>
       <c r="L3">
         <f t="shared" si="0"/>
-        <v>12506.694444444443</v>
+        <v>13123.966234567901</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1194,37 +5259,37 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>-4.5</v>
+        <v>-9.9</v>
       </c>
       <c r="C4">
-        <v>-4</v>
+        <v>-9.9480000000000004</v>
       </c>
       <c r="D4">
-        <v>-3</v>
+        <v>-9.4499999999999993</v>
       </c>
       <c r="E4">
-        <v>-2</v>
+        <v>-5.43</v>
       </c>
       <c r="F4">
-        <v>-1</v>
+        <v>-2.4</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>3.15</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>11.1</v>
       </c>
       <c r="K4">
-        <v>4</v>
+        <v>11.33</v>
       </c>
       <c r="L4">
-        <v>4.5</v>
+        <v>11.33</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1265,59 +5330,125 @@
       <c r="A16" t="s">
         <v>1</v>
       </c>
+      <c r="B16">
+        <v>-9.9</v>
+      </c>
+      <c r="C16">
+        <v>-9.9480000000000004</v>
+      </c>
+      <c r="D16">
+        <v>-9.4499999999999993</v>
+      </c>
+      <c r="E16">
+        <v>-5.43</v>
+      </c>
+      <c r="F16">
+        <v>-2.4</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>3.15</v>
+      </c>
+      <c r="I16">
+        <v>8</v>
+      </c>
+      <c r="J16">
+        <v>11.1</v>
+      </c>
+      <c r="K16">
+        <v>11.3</v>
+      </c>
+      <c r="L16">
+        <v>11.3</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
+      <c r="B17">
+        <v>11217</v>
+      </c>
+      <c r="C17">
+        <v>11797</v>
+      </c>
+      <c r="D17">
+        <v>11854</v>
+      </c>
+      <c r="E17">
+        <v>11941</v>
+      </c>
+      <c r="F17">
+        <v>12018</v>
+      </c>
+      <c r="G17">
+        <v>12045</v>
+      </c>
+      <c r="H17">
+        <v>12140</v>
+      </c>
+      <c r="I17">
+        <v>12248</v>
+      </c>
+      <c r="J17">
+        <v>12315</v>
+      </c>
+      <c r="K17">
+        <v>12380</v>
+      </c>
+      <c r="L17">
+        <v>12586</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="2" t="str">
-        <f>IF(B17="","",(2*$B$12^2-3*$B$12*B17)/(B17-2*$B$12))</f>
-        <v/>
-      </c>
-      <c r="C18" s="2" t="str">
-        <f t="shared" ref="C18:L18" si="1">IF(C17="","",(2*$B$12^2-3*$B$12*C17)/(C17-2*$B$12))</f>
-        <v/>
-      </c>
-      <c r="D18" s="2" t="str">
+      <c r="B18" s="2">
+        <f t="shared" ref="B18:L18" si="1">IF(B17="","",(2*$B$12^2-3*$B$12*B17)/(B17-2*$B$12))</f>
+        <v>8808.2184394978049</v>
+      </c>
+      <c r="C18" s="2">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E18" s="2" t="str">
+        <v>10917.608643070225</v>
+      </c>
+      <c r="D18" s="2">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F18" s="2" t="str">
+        <v>11135.60667422647</v>
+      </c>
+      <c r="E18" s="2">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G18" s="2" t="str">
+        <v>11472.248959947794</v>
+      </c>
+      <c r="F18" s="2">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H18" s="2" t="str">
+        <v>11774.207847644066</v>
+      </c>
+      <c r="G18" s="2">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I18" s="2" t="str">
+        <v>11880.995475113123</v>
+      </c>
+      <c r="H18" s="2">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J18" s="2" t="str">
+        <v>12260.530679933665</v>
+      </c>
+      <c r="I18" s="2">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K18" s="2" t="str">
+        <v>12699.330655957163</v>
+      </c>
+      <c r="J18" s="2">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L18" s="2" t="str">
+        <v>12975.557425326042</v>
+      </c>
+      <c r="K18" s="2">
         <f t="shared" si="1"/>
-        <v/>
+        <v>13246.531302876481</v>
+      </c>
+      <c r="L18" s="2">
+        <f t="shared" si="1"/>
+        <v>14125.34871706561</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1330,5 +5461,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>